--- a/20240318_Diseño curricular - Análisis de Datos 2024 (1).xlsx
+++ b/20240318_Diseño curricular - Análisis de Datos 2024 (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27612"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/sd_solano_uniandes_edu_co/Documents/Colsubsidio/2_Generales/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nib1l\Documents\Andes_ADDBD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="112" documentId="8_{FC9A235C-59EC-47CE-B654-86518EA3CC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30C04341-43B9-4F38-8C44-D063A33260AC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644A9766-7B33-4756-B78F-F1B04F4B94C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-18675" yWindow="2655" windowWidth="14340" windowHeight="8145" xr2:uid="{5EE410A9-F9F3-4F93-B078-4AA8E1632BFF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5EE410A9-F9F3-4F93-B078-4AA8E1632BFF}"/>
   </bookViews>
   <sheets>
     <sheet name="ProgramaPropuesta" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
   <si>
     <t>Semana</t>
   </si>
@@ -44,12 +44,6 @@
     <t>N° Clase</t>
   </si>
   <si>
-    <t>Deadline</t>
-  </si>
-  <si>
-    <t>Responsable</t>
-  </si>
-  <si>
     <t>Módulo</t>
   </si>
   <si>
@@ -62,13 +56,7 @@
     <t>Al final de este módulo, los estudiantes deben estar en la capacidad de</t>
   </si>
   <si>
-    <t>Lista</t>
-  </si>
-  <si>
     <t>Fundamentos de programación</t>
-  </si>
-  <si>
-    <t>Instroducción a la programación y sus elementos</t>
   </si>
   <si>
     <t>* Semántica de la programación
@@ -155,9 +143,6 @@
 * Correlaciones</t>
   </si>
   <si>
-    <t>Tomas</t>
-  </si>
-  <si>
     <t>Multivariado</t>
   </si>
   <si>
@@ -166,18 +151,12 @@
 * Dispersión con tendencia, burbujas, segmentado - variables cont cont</t>
   </si>
   <si>
-    <t>Alfred</t>
-  </si>
-  <si>
     <t>Taller de limpieza, técnicas de imputación y Anáilisis Exploratorio de datos (univariado, multivariado)
 - Muchos ejercicios activos
 - Parte de visualización parte abierta y analítca</t>
   </si>
   <si>
     <t>* Un taller en que preparamos un cuadernillo para cargar una base de datos, familiarizarnos con ellos, y correr procedimientos básicos de limpieza, análisis exploratorio de datos: univariado, bivariado, multivariado</t>
-  </si>
-  <si>
-    <t>Roy</t>
   </si>
   <si>
     <t>Analítica avanzada</t>
@@ -240,9 +219,6 @@
 * K-medias</t>
   </si>
   <si>
-    <t>Sergio</t>
-  </si>
-  <si>
     <t>Introducción a big data</t>
   </si>
   <si>
@@ -287,12 +263,15 @@
 * Pipelines de ML
 * Modelamiento</t>
   </si>
+  <si>
+    <t>Introducción a la programación y sus elementos</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -439,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -469,9 +448,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -817,27 +793,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE8F74D4-FB5E-455D-800E-566E99DD916B}">
-  <dimension ref="B2:I23"/>
+  <dimension ref="B2:G22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="5"/>
-    <col min="4" max="4" width="13.28515625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="39.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="48.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="58" style="2" customWidth="1"/>
-    <col min="9" max="9" width="45.7109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="7.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="5"/>
+    <col min="4" max="4" width="39.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="48.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58" style="2" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="27.95">
+    <row r="2" spans="2:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -853,151 +827,121 @@
       <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" ht="69.95">
+    </row>
+    <row r="3" spans="2:7" ht="69" x14ac:dyDescent="0.3">
       <c r="B3" s="4">
         <v>1</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="27.95">
+    </row>
+    <row r="4" spans="2:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B4" s="4">
         <v>1</v>
       </c>
       <c r="C4" s="6">
         <v>2</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="D4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="12"/>
-    </row>
-    <row r="5" spans="2:9" ht="27.95">
+      <c r="F4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="2:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="6">
         <v>3</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="12"/>
-    </row>
-    <row r="6" spans="2:9" ht="69.95">
+      <c r="D5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="2:7" ht="69" x14ac:dyDescent="0.3">
       <c r="B6" s="6">
         <v>2</v>
       </c>
       <c r="C6" s="6">
         <v>4</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="12"/>
-    </row>
-    <row r="7" spans="2:9" ht="27.95">
+      <c r="D6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="2:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
         <v>2</v>
       </c>
       <c r="C7" s="6">
         <v>5</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="12"/>
-    </row>
-    <row r="8" spans="2:9" ht="39.75" customHeight="1">
+      <c r="D7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="2:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6">
         <v>2</v>
       </c>
       <c r="C8" s="6">
         <v>6</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="12"/>
-    </row>
-    <row r="9" spans="2:9" ht="111.95" customHeight="1">
+      <c r="D8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="2:7" ht="111.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <f>B6+1</f>
         <v>3</v>
@@ -1005,26 +949,20 @@
       <c r="C9" s="6">
         <v>7</v>
       </c>
-      <c r="D9" s="11">
-        <v>45016</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="111.95">
+      <c r="D9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="110.4" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <f t="shared" ref="B10:B22" si="0">B7+1</f>
         <v>3</v>
@@ -1032,24 +970,18 @@
       <c r="C10" s="6">
         <v>8</v>
       </c>
-      <c r="D10" s="11">
-        <v>45016</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="D10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="12"/>
-    </row>
-    <row r="11" spans="2:9" ht="56.1">
+      <c r="F10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="2:7" ht="55.2" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1057,24 +989,18 @@
       <c r="C11" s="6">
         <v>9</v>
       </c>
-      <c r="D11" s="11">
-        <v>45016</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="12"/>
-    </row>
-    <row r="12" spans="2:9" ht="56.1">
+      <c r="D11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="2:7" ht="55.2" x14ac:dyDescent="0.3">
       <c r="B12" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1082,25 +1008,18 @@
       <c r="C12" s="6">
         <v>10</v>
       </c>
-      <c r="D12" s="11">
-        <f>D9+7</f>
-        <v>45023</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="12"/>
-    </row>
-    <row r="13" spans="2:9" ht="69.95">
+      <c r="D12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="2:7" ht="69" x14ac:dyDescent="0.3">
       <c r="B13" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1108,25 +1027,18 @@
       <c r="C13" s="6">
         <v>11</v>
       </c>
-      <c r="D13" s="11">
-        <f t="shared" ref="D13:D14" si="1">D10+7</f>
-        <v>45023</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" s="12"/>
-    </row>
-    <row r="14" spans="2:9" ht="153.94999999999999">
+      <c r="D13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="2:7" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="B14" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1134,27 +1046,20 @@
       <c r="C14" s="6">
         <v>12</v>
       </c>
-      <c r="D14" s="11">
-        <f t="shared" si="1"/>
-        <v>45023</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" ht="98.1" customHeight="1">
+      <c r="D14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="98.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1162,24 +1067,18 @@
       <c r="C15" s="6">
         <v>13</v>
       </c>
-      <c r="D15" s="11">
-        <v>45023</v>
-      </c>
-      <c r="E15" s="6" t="s">
+      <c r="D15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" s="12"/>
-    </row>
-    <row r="16" spans="2:9" ht="56.1">
+      <c r="E15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="2:7" ht="55.2" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1187,24 +1086,18 @@
       <c r="C16" s="6">
         <v>14</v>
       </c>
-      <c r="D16" s="11">
-        <v>45023</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="D16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I16" s="12"/>
-    </row>
-    <row r="17" spans="2:9" ht="56.1">
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="2:7" ht="55.2" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1212,24 +1105,18 @@
       <c r="C17" s="6">
         <v>15</v>
       </c>
-      <c r="D17" s="11">
-        <v>45023</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" s="12"/>
-    </row>
-    <row r="18" spans="2:9" ht="72">
+      <c r="D17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="2:7" ht="69" x14ac:dyDescent="0.3">
       <c r="B18" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1237,24 +1124,18 @@
       <c r="C18" s="6">
         <v>16</v>
       </c>
-      <c r="D18" s="11">
-        <v>45030</v>
-      </c>
-      <c r="E18" s="6" t="s">
+      <c r="D18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="I18" s="12"/>
-    </row>
-    <row r="19" spans="2:9" ht="69.95">
+      <c r="E18" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="2:7" ht="69" x14ac:dyDescent="0.3">
       <c r="B19" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1262,26 +1143,20 @@
       <c r="C19" s="6">
         <v>17</v>
       </c>
-      <c r="D19" s="11">
-        <v>45030</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="86.25">
+      <c r="D19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="82.8" x14ac:dyDescent="0.3">
       <c r="B20" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1289,24 +1164,18 @@
       <c r="C20" s="6">
         <v>18</v>
       </c>
-      <c r="D20" s="11">
-        <v>45030</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I20" s="13"/>
-    </row>
-    <row r="21" spans="2:9" ht="56.1">
+      <c r="D20" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="2:7" ht="55.2" x14ac:dyDescent="0.3">
       <c r="B21" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1314,24 +1183,18 @@
       <c r="C21" s="6">
         <v>19</v>
       </c>
-      <c r="D21" s="11">
-        <v>45037</v>
-      </c>
-      <c r="E21" s="6" t="s">
+      <c r="D21" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="I21" s="13"/>
-    </row>
-    <row r="22" spans="2:9" ht="56.1">
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" spans="2:7" ht="55.2" x14ac:dyDescent="0.3">
       <c r="B22" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1339,32 +1202,23 @@
       <c r="C22" s="6">
         <v>20</v>
       </c>
-      <c r="D22" s="11">
-        <v>45037</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" s="7" t="s">
+      <c r="D22" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G22" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="I22" s="14"/>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="D23" s="11"/>
+      <c r="F22" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="I3:I8"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="G3:G8"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="G14:G18"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
